--- a/biology/Botanique/Parc_Al-Azhar/Parc_Al-Azhar.xlsx
+++ b/biology/Botanique/Parc_Al-Azhar/Parc_Al-Azhar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Al-Azhar (en anglais : Al-Azhar Park) est le parc le plus récent du Caire, situé dans le centre historique de la ville. 
-Ce jardin était autrefois un terrain vague où étaient déversées les ordures de la capitale égyptienne. Financé par l'Aga Khan IV[1],[2], il a ouvert ses portes en mars 2005[3]. Le parc offre une profusion de palmiers royaux, de manguiers, d'acacias ou de bougainvillées, des parterres fleuris et des pelouses.
-Il est situé juste au nord de la citadelle de Saladin et s'étend sur 30 hectares (74 acres)[3].
+Ce jardin était autrefois un terrain vague où étaient déversées les ordures de la capitale égyptienne. Financé par l'Aga Khan IV il a ouvert ses portes en mars 2005. Le parc offre une profusion de palmiers royaux, de manguiers, d'acacias ou de bougainvillées, des parterres fleuris et des pelouses.
+Il est situé juste au nord de la citadelle de Saladin et s'étend sur 30 hectares (74 acres).
 </t>
         </is>
       </c>
